--- a/Code/Results/Cases/Case_1_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_225/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006280612533073</v>
+        <v>1.036334996200109</v>
       </c>
       <c r="D2">
-        <v>1.04091714389746</v>
+        <v>1.04053603843413</v>
       </c>
       <c r="E2">
-        <v>1.018257665783085</v>
+        <v>1.04409588715953</v>
       </c>
       <c r="F2">
-        <v>1.020917699295329</v>
+        <v>1.052215392369115</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053459119269939</v>
+        <v>1.03971543168033</v>
       </c>
       <c r="J2">
-        <v>1.028275080698333</v>
+        <v>1.041443875618211</v>
       </c>
       <c r="K2">
-        <v>1.051834416557576</v>
+        <v>1.043318109209606</v>
       </c>
       <c r="L2">
-        <v>1.02946836986672</v>
+        <v>1.046867900200587</v>
       </c>
       <c r="M2">
-        <v>1.03209311063375</v>
+        <v>1.054964741209956</v>
       </c>
       <c r="N2">
-        <v>1.029735349257725</v>
+        <v>1.042922845376871</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010967472420651</v>
+        <v>1.037315487867556</v>
       </c>
       <c r="D3">
-        <v>1.043764384641404</v>
+        <v>1.041106513308931</v>
       </c>
       <c r="E3">
-        <v>1.022320738921587</v>
+        <v>1.045002393081642</v>
       </c>
       <c r="F3">
-        <v>1.025647920482402</v>
+        <v>1.053287367826528</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054901747123405</v>
+        <v>1.039935749525724</v>
       </c>
       <c r="J3">
-        <v>1.031163553629123</v>
+        <v>1.042068132521718</v>
       </c>
       <c r="K3">
-        <v>1.05386631691439</v>
+        <v>1.043699658927979</v>
       </c>
       <c r="L3">
-        <v>1.032675770424368</v>
+        <v>1.047585325712558</v>
       </c>
       <c r="M3">
-        <v>1.035962820722872</v>
+        <v>1.055848852529881</v>
       </c>
       <c r="N3">
-        <v>1.032627924151389</v>
+        <v>1.043547988796784</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013935352798375</v>
+        <v>1.037950091557073</v>
       </c>
       <c r="D4">
-        <v>1.045567536175776</v>
+        <v>1.04147531272245</v>
       </c>
       <c r="E4">
-        <v>1.024899722009411</v>
+        <v>1.045589542672901</v>
       </c>
       <c r="F4">
-        <v>1.028651205975229</v>
+        <v>1.053981910279077</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055802953468833</v>
+        <v>1.040076780118256</v>
       </c>
       <c r="J4">
-        <v>1.032989185483475</v>
+        <v>1.04247162707525</v>
       </c>
       <c r="K4">
-        <v>1.055145430742811</v>
+        <v>1.043945509319753</v>
       </c>
       <c r="L4">
-        <v>1.034706637792068</v>
+        <v>1.048049495865351</v>
       </c>
       <c r="M4">
-        <v>1.038415709430648</v>
+        <v>1.056421235249247</v>
       </c>
       <c r="N4">
-        <v>1.034456148612377</v>
+        <v>1.043952056358864</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015168096685954</v>
+        <v>1.038216916730792</v>
       </c>
       <c r="D5">
-        <v>1.046316442432746</v>
+        <v>1.041630273961693</v>
       </c>
       <c r="E5">
-        <v>1.025972360743432</v>
+        <v>1.04583651822982</v>
       </c>
       <c r="F5">
-        <v>1.029900540417224</v>
+        <v>1.054274111257837</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056174267115388</v>
+        <v>1.040135702486746</v>
       </c>
       <c r="J5">
-        <v>1.033746620514315</v>
+        <v>1.042641149839911</v>
       </c>
       <c r="K5">
-        <v>1.055674836392216</v>
+        <v>1.044048615253205</v>
       </c>
       <c r="L5">
-        <v>1.035550107694745</v>
+        <v>1.048244619806119</v>
       </c>
       <c r="M5">
-        <v>1.039435104342028</v>
+        <v>1.056661936891508</v>
       </c>
       <c r="N5">
-        <v>1.03521465928784</v>
+        <v>1.044121819865295</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015374218909352</v>
+        <v>1.038261720051903</v>
       </c>
       <c r="D6">
-        <v>1.046441658142907</v>
+        <v>1.041656287778405</v>
       </c>
       <c r="E6">
-        <v>1.026151795314412</v>
+        <v>1.045877994571123</v>
       </c>
       <c r="F6">
-        <v>1.030109546856472</v>
+        <v>1.054323185692882</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056236174202144</v>
+        <v>1.040145574277725</v>
       </c>
       <c r="J6">
-        <v>1.033873216512414</v>
+        <v>1.042669607202317</v>
       </c>
       <c r="K6">
-        <v>1.05576324295814</v>
+        <v>1.044065912525405</v>
       </c>
       <c r="L6">
-        <v>1.035691135595803</v>
+        <v>1.048277381180097</v>
       </c>
       <c r="M6">
-        <v>1.039605585323684</v>
+        <v>1.056702355954195</v>
       </c>
       <c r="N6">
-        <v>1.035341435066778</v>
+        <v>1.04415031764042</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013951882807539</v>
+        <v>1.037953656740297</v>
       </c>
       <c r="D7">
-        <v>1.045577578687669</v>
+        <v>1.041477383646479</v>
       </c>
       <c r="E7">
-        <v>1.024914099555449</v>
+        <v>1.045592842231779</v>
       </c>
       <c r="F7">
-        <v>1.028667951030912</v>
+        <v>1.053985813837706</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055807944438227</v>
+        <v>1.040077568884295</v>
       </c>
       <c r="J7">
-        <v>1.032999345473558</v>
+        <v>1.04247389266544</v>
       </c>
       <c r="K7">
-        <v>1.055152537170366</v>
+        <v>1.043946888008347</v>
       </c>
       <c r="L7">
-        <v>1.034717948319362</v>
+        <v>1.048052103173726</v>
       </c>
       <c r="M7">
-        <v>1.038429376449048</v>
+        <v>1.056424451234584</v>
       </c>
       <c r="N7">
-        <v>1.034466323030811</v>
+        <v>1.043954325166452</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007878334043921</v>
+        <v>1.036666324500924</v>
       </c>
       <c r="D8">
-        <v>1.041887652131544</v>
+        <v>1.040728901695388</v>
       </c>
       <c r="E8">
-        <v>1.01964143771147</v>
+        <v>1.044402124521028</v>
       </c>
       <c r="F8">
-        <v>1.022528520684733</v>
+        <v>1.052577484134245</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053953450479898</v>
+        <v>1.039790205484709</v>
       </c>
       <c r="J8">
-        <v>1.029260444988931</v>
+        <v>1.041654937153917</v>
       </c>
       <c r="K8">
-        <v>1.052528616772883</v>
+        <v>1.04344726993143</v>
       </c>
       <c r="L8">
-        <v>1.030561766944395</v>
+        <v>1.047110367876507</v>
       </c>
       <c r="M8">
-        <v>1.033411736571609</v>
+        <v>1.0552634674737</v>
       </c>
       <c r="N8">
-        <v>1.030722112878638</v>
+        <v>1.043134206644167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9966523141828866</v>
+        <v>1.034399129034715</v>
       </c>
       <c r="D9">
-        <v>1.035073541912177</v>
+        <v>1.039407478026022</v>
       </c>
       <c r="E9">
-        <v>1.009946279831347</v>
+        <v>1.042308406590031</v>
       </c>
       <c r="F9">
-        <v>1.011245254215653</v>
+        <v>1.050102773980514</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050430217556431</v>
+        <v>1.039272147007576</v>
       </c>
       <c r="J9">
-        <v>1.022323844244862</v>
+        <v>1.040208481669127</v>
       </c>
       <c r="K9">
-        <v>1.047622097749728</v>
+        <v>1.042558980092461</v>
       </c>
       <c r="L9">
-        <v>1.022880020721677</v>
+        <v>1.045450541934604</v>
       </c>
       <c r="M9">
-        <v>1.024158482146908</v>
+        <v>1.053220022745829</v>
       </c>
       <c r="N9">
-        <v>1.023775661365874</v>
+        <v>1.041685697026677</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9887756486861894</v>
+        <v>1.032888533276178</v>
       </c>
       <c r="D10">
-        <v>1.03030357946184</v>
+        <v>1.038524940308827</v>
       </c>
       <c r="E10">
-        <v>1.003180786482709</v>
+        <v>1.040915657467852</v>
       </c>
       <c r="F10">
-        <v>1.003373925430381</v>
+        <v>1.04845768091539</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047897389041342</v>
+        <v>1.038918954890246</v>
       </c>
       <c r="J10">
-        <v>1.017441786428166</v>
+        <v>1.039241963007085</v>
       </c>
       <c r="K10">
-        <v>1.0441464319404</v>
+        <v>1.041961541759487</v>
       </c>
       <c r="L10">
-        <v>1.017492847358179</v>
+        <v>1.044343784427034</v>
       </c>
       <c r="M10">
-        <v>1.017682528650127</v>
+        <v>1.051859352266882</v>
       </c>
       <c r="N10">
-        <v>1.018886670467098</v>
+        <v>1.040717805797275</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9852619312599353</v>
+        <v>1.032234639743699</v>
       </c>
       <c r="D11">
-        <v>1.028180014648379</v>
+        <v>1.038142434594602</v>
       </c>
       <c r="E11">
-        <v>1.000172223044625</v>
+        <v>1.040313318529861</v>
       </c>
       <c r="F11">
-        <v>0.9998738257373291</v>
+        <v>1.047746463921254</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046754004133044</v>
+        <v>1.038764171849902</v>
       </c>
       <c r="J11">
-        <v>1.015260949340325</v>
+        <v>1.038822931959842</v>
       </c>
       <c r="K11">
-        <v>1.042589370196326</v>
+        <v>1.041701613917158</v>
       </c>
       <c r="L11">
-        <v>1.015090892221961</v>
+        <v>1.043864505204257</v>
       </c>
       <c r="M11">
-        <v>1.014798121912405</v>
+        <v>1.051270560723082</v>
       </c>
       <c r="N11">
-        <v>1.016702736340447</v>
+        <v>1.040298179677881</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9839403775909457</v>
+        <v>1.031991785611178</v>
       </c>
       <c r="D12">
-        <v>1.027382104689216</v>
+        <v>1.038000302257964</v>
       </c>
       <c r="E12">
-        <v>0.99904214850671</v>
+        <v>1.040089693572564</v>
       </c>
       <c r="F12">
-        <v>0.9985591227899939</v>
+        <v>1.047482455011003</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046322013527286</v>
+        <v>1.038706401400363</v>
       </c>
       <c r="J12">
-        <v>1.014440311320633</v>
+        <v>1.038667207281624</v>
       </c>
       <c r="K12">
-        <v>1.042002859670706</v>
+        <v>1.041604880945703</v>
       </c>
       <c r="L12">
-        <v>1.014187722475701</v>
+        <v>1.043686473251993</v>
       </c>
       <c r="M12">
-        <v>1.013713979894102</v>
+        <v>1.051051916169469</v>
       </c>
       <c r="N12">
-        <v>1.015880932920639</v>
+        <v>1.040142233852758</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9842246130925296</v>
+        <v>1.032043877237026</v>
       </c>
       <c r="D13">
-        <v>1.027553678474579</v>
+        <v>1.038030792485696</v>
       </c>
       <c r="E13">
-        <v>0.9992851332085682</v>
+        <v>1.040137656870249</v>
       </c>
       <c r="F13">
-        <v>0.9988418060718764</v>
+        <v>1.047539078172472</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046415011387852</v>
+        <v>1.038718805889575</v>
       </c>
       <c r="J13">
-        <v>1.014616828600864</v>
+        <v>1.038700614269616</v>
       </c>
       <c r="K13">
-        <v>1.042129042373398</v>
+        <v>1.041625638814778</v>
       </c>
       <c r="L13">
-        <v>1.014381961770908</v>
+        <v>1.043724661986129</v>
       </c>
       <c r="M13">
-        <v>1.013947120318388</v>
+        <v>1.051098813496296</v>
       </c>
       <c r="N13">
-        <v>1.016057700875654</v>
+        <v>1.040175688282504</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9851530313820673</v>
+        <v>1.032214564710214</v>
       </c>
       <c r="D14">
-        <v>1.028114247619484</v>
+        <v>1.038130686957039</v>
       </c>
       <c r="E14">
-        <v>1.000079071075346</v>
+        <v>1.040294831361594</v>
       </c>
       <c r="F14">
-        <v>0.9997654550023705</v>
+        <v>1.047724637416442</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046718445973875</v>
+        <v>1.03875940217666</v>
       </c>
       <c r="J14">
-        <v>1.015193334144403</v>
+        <v>1.038810061295126</v>
       </c>
       <c r="K14">
-        <v>1.04254105723889</v>
+        <v>1.041693621691012</v>
       </c>
       <c r="L14">
-        <v>1.015016463289318</v>
+        <v>1.043849789152837</v>
       </c>
       <c r="M14">
-        <v>1.014708770524056</v>
+        <v>1.051252486292327</v>
       </c>
       <c r="N14">
-        <v>1.016635025123191</v>
+        <v>1.040285290735344</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9857228584060099</v>
+        <v>1.032319735018899</v>
       </c>
       <c r="D15">
-        <v>1.028458411750343</v>
+        <v>1.038192228303286</v>
       </c>
       <c r="E15">
-        <v>1.000566556809551</v>
+        <v>1.04039168642439</v>
       </c>
       <c r="F15">
-        <v>1.000332583943512</v>
+        <v>1.047838988969859</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046904427859383</v>
+        <v>1.038784378183088</v>
       </c>
       <c r="J15">
-        <v>1.015547119995847</v>
+        <v>1.038877484914959</v>
       </c>
       <c r="K15">
-        <v>1.042793823342149</v>
+        <v>1.041735483808494</v>
       </c>
       <c r="L15">
-        <v>1.015405928368313</v>
+        <v>1.043926883311594</v>
       </c>
       <c r="M15">
-        <v>1.015176338201748</v>
+        <v>1.051347176988449</v>
       </c>
       <c r="N15">
-        <v>1.016989313391124</v>
+        <v>1.040352810104451</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9890065942371412</v>
+        <v>1.032931934371084</v>
       </c>
       <c r="D16">
-        <v>1.030443255962598</v>
+        <v>1.03855031847973</v>
       </c>
       <c r="E16">
-        <v>1.003378732114552</v>
+        <v>1.040955648179013</v>
       </c>
       <c r="F16">
-        <v>1.003604213244331</v>
+        <v>1.048504905676159</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047972265577611</v>
+        <v>1.038929188434432</v>
       </c>
       <c r="J16">
-        <v>1.017585068013934</v>
+        <v>1.039269761764635</v>
       </c>
       <c r="K16">
-        <v>1.044248644633363</v>
+        <v>1.041978766425075</v>
       </c>
       <c r="L16">
-        <v>1.01765075006642</v>
+        <v>1.044375591693477</v>
       </c>
       <c r="M16">
-        <v>1.017872208624613</v>
+        <v>1.051898436642035</v>
       </c>
       <c r="N16">
-        <v>1.019030155529153</v>
+        <v>1.040745644032249</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9910381740705498</v>
+        <v>1.033316005807669</v>
       </c>
       <c r="D17">
-        <v>1.031672464581672</v>
+        <v>1.038774843426238</v>
       </c>
       <c r="E17">
-        <v>1.005121102473218</v>
+        <v>1.04130960264434</v>
       </c>
       <c r="F17">
-        <v>1.005631289622692</v>
+        <v>1.04892291769189</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048629411937238</v>
+        <v>1.039019529589542</v>
       </c>
       <c r="J17">
-        <v>1.018845152228314</v>
+        <v>1.03951568727794</v>
       </c>
       <c r="K17">
-        <v>1.045147051383472</v>
+        <v>1.04213104179818</v>
       </c>
       <c r="L17">
-        <v>1.019039932092117</v>
+        <v>1.044657042729569</v>
       </c>
       <c r="M17">
-        <v>1.019541297148419</v>
+        <v>1.05224433148486</v>
       </c>
       <c r="N17">
-        <v>1.02029202920765</v>
+        <v>1.04099191878799</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9922132810654644</v>
+        <v>1.033540047877939</v>
       </c>
       <c r="D18">
-        <v>1.032383859167545</v>
+        <v>1.038905770087671</v>
       </c>
       <c r="E18">
-        <v>1.006129818096788</v>
+        <v>1.041516128738066</v>
       </c>
       <c r="F18">
-        <v>1.006804853994351</v>
+        <v>1.049166844970305</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049008232688793</v>
+        <v>1.039072045662248</v>
       </c>
       <c r="J18">
-        <v>1.01957372356128</v>
+        <v>1.03965908105846</v>
       </c>
       <c r="K18">
-        <v>1.045666075427674</v>
+        <v>1.042219742399668</v>
       </c>
       <c r="L18">
-        <v>1.01984357516351</v>
+        <v>1.044821203887161</v>
       </c>
       <c r="M18">
-        <v>1.020507151570502</v>
+        <v>1.052446123467778</v>
       </c>
       <c r="N18">
-        <v>1.021021635195478</v>
+        <v>1.041135516204126</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9926123132489615</v>
+        <v>1.033616443765413</v>
       </c>
       <c r="D19">
-        <v>1.032625490900352</v>
+        <v>1.038950406721499</v>
       </c>
       <c r="E19">
-        <v>1.006472498349684</v>
+        <v>1.041586560723577</v>
       </c>
       <c r="F19">
-        <v>1.007203541371276</v>
+        <v>1.049250036158944</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049136648713743</v>
+        <v>1.039089922009311</v>
       </c>
       <c r="J19">
-        <v>1.019821075040619</v>
+        <v>1.039707966064779</v>
       </c>
       <c r="K19">
-        <v>1.045842210374633</v>
+        <v>1.042249966787658</v>
       </c>
       <c r="L19">
-        <v>1.020116486468112</v>
+        <v>1.044877177823459</v>
       </c>
       <c r="M19">
-        <v>1.020835197445651</v>
+        <v>1.052514935640489</v>
       </c>
       <c r="N19">
-        <v>1.021269337942289</v>
+        <v>1.041184470632762</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9908212330384438</v>
+        <v>1.033274796537264</v>
       </c>
       <c r="D20">
-        <v>1.031541162227067</v>
+        <v>1.038750757627182</v>
       </c>
       <c r="E20">
-        <v>1.004934951381979</v>
+        <v>1.041271619388134</v>
       </c>
       <c r="F20">
-        <v>1.005414718978839</v>
+        <v>1.048878057789229</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048559371845855</v>
+        <v>1.039009855286529</v>
       </c>
       <c r="J20">
-        <v>1.018710624308802</v>
+        <v>1.03948930700797</v>
       </c>
       <c r="K20">
-        <v>1.045051180435139</v>
+        <v>1.042114716397689</v>
       </c>
       <c r="L20">
-        <v>1.018891577135589</v>
+        <v>1.044626846155054</v>
       </c>
       <c r="M20">
-        <v>1.019363020634928</v>
+        <v>1.052207216371751</v>
       </c>
       <c r="N20">
-        <v>1.020157310243063</v>
+        <v>1.040965501055012</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.984880095847958</v>
+        <v>1.032164300644106</v>
       </c>
       <c r="D21">
-        <v>1.027949429085714</v>
+        <v>1.038101271966849</v>
       </c>
       <c r="E21">
-        <v>0.9998456286135402</v>
+        <v>1.040248544333599</v>
       </c>
       <c r="F21">
-        <v>0.9994938736466153</v>
+        <v>1.047669990180872</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046629295525414</v>
+        <v>1.038747455227606</v>
       </c>
       <c r="J21">
-        <v>1.015023864099467</v>
+        <v>1.038777834019754</v>
       </c>
       <c r="K21">
-        <v>1.042419956791939</v>
+        <v>1.04167360750464</v>
       </c>
       <c r="L21">
-        <v>1.014829926198654</v>
+        <v>1.043812942490379</v>
       </c>
       <c r="M21">
-        <v>1.014484841095464</v>
+        <v>1.05120723185506</v>
       </c>
       <c r="N21">
-        <v>1.016465314411353</v>
+        <v>1.040253017693545</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9810492601988154</v>
+        <v>1.031466267554265</v>
       </c>
       <c r="D22">
-        <v>1.025638166078356</v>
+        <v>1.037692610511862</v>
       </c>
       <c r="E22">
-        <v>0.9965727251724351</v>
+        <v>1.039605936394714</v>
       </c>
       <c r="F22">
-        <v>0.9956862201826245</v>
+        <v>1.046911406754745</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045373469731114</v>
+        <v>1.038580870755872</v>
       </c>
       <c r="J22">
-        <v>1.012644357939581</v>
+        <v>1.038330052337474</v>
       </c>
       <c r="K22">
-        <v>1.040718279499791</v>
+        <v>1.041395199647816</v>
       </c>
       <c r="L22">
-        <v>1.012212384171719</v>
+        <v>1.04330117274238</v>
       </c>
       <c r="M22">
-        <v>1.011343621018438</v>
+        <v>1.050578842630781</v>
       </c>
       <c r="N22">
-        <v>1.014082429079786</v>
+        <v>1.039804600109915</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9830894271803035</v>
+        <v>1.031836290952745</v>
       </c>
       <c r="D23">
-        <v>1.02686857081624</v>
+        <v>1.037909277981706</v>
       </c>
       <c r="E23">
-        <v>0.9983149181095646</v>
+        <v>1.039946534102663</v>
       </c>
       <c r="F23">
-        <v>0.9977130761016189</v>
+        <v>1.047313453405729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046043315301311</v>
+        <v>1.038669332101279</v>
       </c>
       <c r="J23">
-        <v>1.013911795920677</v>
+        <v>1.038567472387298</v>
       </c>
       <c r="K23">
-        <v>1.041624971044225</v>
+        <v>1.041542889534685</v>
       </c>
       <c r="L23">
-        <v>1.013606243470391</v>
+        <v>1.04357247480431</v>
       </c>
       <c r="M23">
-        <v>1.013016108487109</v>
+        <v>1.050911931154876</v>
       </c>
       <c r="N23">
-        <v>1.015351666968193</v>
+        <v>1.040042357323442</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9909192898150394</v>
+        <v>1.033293417171787</v>
       </c>
       <c r="D24">
-        <v>1.031600509331328</v>
+        <v>1.038761641071144</v>
       </c>
       <c r="E24">
-        <v>1.00501908842066</v>
+        <v>1.041288782169006</v>
       </c>
       <c r="F24">
-        <v>1.00551260504967</v>
+        <v>1.048898327714723</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048591033777495</v>
+        <v>1.039014227238878</v>
       </c>
       <c r="J24">
-        <v>1.018771431468767</v>
+        <v>1.039501227272198</v>
       </c>
       <c r="K24">
-        <v>1.045094515822251</v>
+        <v>1.042122093511386</v>
       </c>
       <c r="L24">
-        <v>1.018958632842831</v>
+        <v>1.044640490701089</v>
       </c>
       <c r="M24">
-        <v>1.019443599852638</v>
+        <v>1.052223986978269</v>
       </c>
       <c r="N24">
-        <v>1.020218203756169</v>
+        <v>1.040977438247382</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.999620569570242</v>
+        <v>1.034985102527509</v>
       </c>
       <c r="D25">
-        <v>1.036873853810865</v>
+        <v>1.039749384584105</v>
       </c>
       <c r="E25">
-        <v>1.012503597199135</v>
+        <v>1.042849146784635</v>
       </c>
       <c r="F25">
-        <v>1.014220951760585</v>
+        <v>1.050741718210312</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051372536376837</v>
+        <v>1.039407458620556</v>
       </c>
       <c r="J25">
-        <v>1.024160709813432</v>
+        <v>1.040582818282619</v>
       </c>
       <c r="K25">
-        <v>1.048925500800064</v>
+        <v>1.042789553583367</v>
       </c>
       <c r="L25">
-        <v>1.024910862925446</v>
+        <v>1.045879686156338</v>
       </c>
       <c r="M25">
-        <v>1.026602445175154</v>
+        <v>1.053748018617454</v>
       </c>
       <c r="N25">
-        <v>1.025615135494243</v>
+        <v>1.042060565241098</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_225/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036334996200109</v>
+        <v>1.006280612533073</v>
       </c>
       <c r="D2">
-        <v>1.04053603843413</v>
+        <v>1.04091714389746</v>
       </c>
       <c r="E2">
-        <v>1.04409588715953</v>
+        <v>1.018257665783084</v>
       </c>
       <c r="F2">
-        <v>1.052215392369115</v>
+        <v>1.020917699295329</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03971543168033</v>
+        <v>1.053459119269938</v>
       </c>
       <c r="J2">
-        <v>1.041443875618211</v>
+        <v>1.028275080698332</v>
       </c>
       <c r="K2">
-        <v>1.043318109209606</v>
+        <v>1.051834416557575</v>
       </c>
       <c r="L2">
-        <v>1.046867900200587</v>
+        <v>1.029468369866719</v>
       </c>
       <c r="M2">
-        <v>1.054964741209956</v>
+        <v>1.03209311063375</v>
       </c>
       <c r="N2">
-        <v>1.042922845376871</v>
+        <v>1.029735349257724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037315487867556</v>
+        <v>1.01096747242065</v>
       </c>
       <c r="D3">
-        <v>1.041106513308931</v>
+        <v>1.043764384641403</v>
       </c>
       <c r="E3">
-        <v>1.045002393081642</v>
+        <v>1.022320738921586</v>
       </c>
       <c r="F3">
-        <v>1.053287367826528</v>
+        <v>1.025647920482401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039935749525724</v>
+        <v>1.054901747123404</v>
       </c>
       <c r="J3">
-        <v>1.042068132521718</v>
+        <v>1.031163553629122</v>
       </c>
       <c r="K3">
-        <v>1.043699658927979</v>
+        <v>1.053866316914389</v>
       </c>
       <c r="L3">
-        <v>1.047585325712558</v>
+        <v>1.032675770424367</v>
       </c>
       <c r="M3">
-        <v>1.055848852529881</v>
+        <v>1.035962820722871</v>
       </c>
       <c r="N3">
-        <v>1.043547988796784</v>
+        <v>1.032627924151388</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037950091557073</v>
+        <v>1.013935352798376</v>
       </c>
       <c r="D4">
-        <v>1.04147531272245</v>
+        <v>1.045567536175776</v>
       </c>
       <c r="E4">
-        <v>1.045589542672901</v>
+        <v>1.024899722009411</v>
       </c>
       <c r="F4">
-        <v>1.053981910279077</v>
+        <v>1.028651205975229</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040076780118256</v>
+        <v>1.055802953468833</v>
       </c>
       <c r="J4">
-        <v>1.04247162707525</v>
+        <v>1.032989185483476</v>
       </c>
       <c r="K4">
-        <v>1.043945509319753</v>
+        <v>1.055145430742811</v>
       </c>
       <c r="L4">
-        <v>1.048049495865351</v>
+        <v>1.034706637792068</v>
       </c>
       <c r="M4">
-        <v>1.056421235249247</v>
+        <v>1.038415709430648</v>
       </c>
       <c r="N4">
-        <v>1.043952056358864</v>
+        <v>1.034456148612378</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038216916730792</v>
+        <v>1.015168096685952</v>
       </c>
       <c r="D5">
-        <v>1.041630273961693</v>
+        <v>1.046316442432745</v>
       </c>
       <c r="E5">
-        <v>1.04583651822982</v>
+        <v>1.02597236074343</v>
       </c>
       <c r="F5">
-        <v>1.054274111257837</v>
+        <v>1.029900540417222</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040135702486746</v>
+        <v>1.056174267115388</v>
       </c>
       <c r="J5">
-        <v>1.042641149839911</v>
+        <v>1.033746620514313</v>
       </c>
       <c r="K5">
-        <v>1.044048615253205</v>
+        <v>1.055674836392215</v>
       </c>
       <c r="L5">
-        <v>1.048244619806119</v>
+        <v>1.035550107694743</v>
       </c>
       <c r="M5">
-        <v>1.056661936891508</v>
+        <v>1.039435104342026</v>
       </c>
       <c r="N5">
-        <v>1.044121819865295</v>
+        <v>1.035214659287838</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038261720051903</v>
+        <v>1.015374218909352</v>
       </c>
       <c r="D6">
-        <v>1.041656287778405</v>
+        <v>1.046441658142907</v>
       </c>
       <c r="E6">
-        <v>1.045877994571123</v>
+        <v>1.026151795314412</v>
       </c>
       <c r="F6">
-        <v>1.054323185692882</v>
+        <v>1.030109546856471</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040145574277725</v>
+        <v>1.056236174202144</v>
       </c>
       <c r="J6">
-        <v>1.042669607202317</v>
+        <v>1.033873216512414</v>
       </c>
       <c r="K6">
-        <v>1.044065912525405</v>
+        <v>1.055763242958139</v>
       </c>
       <c r="L6">
-        <v>1.048277381180097</v>
+        <v>1.035691135595803</v>
       </c>
       <c r="M6">
-        <v>1.056702355954195</v>
+        <v>1.039605585323684</v>
       </c>
       <c r="N6">
-        <v>1.04415031764042</v>
+        <v>1.035341435066777</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037953656740297</v>
+        <v>1.013951882807538</v>
       </c>
       <c r="D7">
-        <v>1.041477383646479</v>
+        <v>1.045577578687668</v>
       </c>
       <c r="E7">
-        <v>1.045592842231779</v>
+        <v>1.024914099555448</v>
       </c>
       <c r="F7">
-        <v>1.053985813837706</v>
+        <v>1.028667951030912</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040077568884295</v>
+        <v>1.055807944438226</v>
       </c>
       <c r="J7">
-        <v>1.04247389266544</v>
+        <v>1.032999345473557</v>
       </c>
       <c r="K7">
-        <v>1.043946888008347</v>
+        <v>1.055152537170366</v>
       </c>
       <c r="L7">
-        <v>1.048052103173726</v>
+        <v>1.034717948319361</v>
       </c>
       <c r="M7">
-        <v>1.056424451234584</v>
+        <v>1.038429376449047</v>
       </c>
       <c r="N7">
-        <v>1.043954325166452</v>
+        <v>1.034466323030811</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036666324500924</v>
+        <v>1.007878334043921</v>
       </c>
       <c r="D8">
-        <v>1.040728901695388</v>
+        <v>1.041887652131543</v>
       </c>
       <c r="E8">
-        <v>1.044402124521028</v>
+        <v>1.01964143771147</v>
       </c>
       <c r="F8">
-        <v>1.052577484134245</v>
+        <v>1.022528520684731</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039790205484709</v>
+        <v>1.053953450479898</v>
       </c>
       <c r="J8">
-        <v>1.041654937153917</v>
+        <v>1.02926044498893</v>
       </c>
       <c r="K8">
-        <v>1.04344726993143</v>
+        <v>1.052528616772882</v>
       </c>
       <c r="L8">
-        <v>1.047110367876507</v>
+        <v>1.030561766944394</v>
       </c>
       <c r="M8">
-        <v>1.0552634674737</v>
+        <v>1.033411736571608</v>
       </c>
       <c r="N8">
-        <v>1.043134206644167</v>
+        <v>1.030722112878637</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034399129034715</v>
+        <v>0.9966523141828861</v>
       </c>
       <c r="D9">
-        <v>1.039407478026022</v>
+        <v>1.035073541912177</v>
       </c>
       <c r="E9">
-        <v>1.042308406590031</v>
+        <v>1.009946279831347</v>
       </c>
       <c r="F9">
-        <v>1.050102773980514</v>
+        <v>1.011245254215653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039272147007576</v>
+        <v>1.05043021755643</v>
       </c>
       <c r="J9">
-        <v>1.040208481669127</v>
+        <v>1.022323844244862</v>
       </c>
       <c r="K9">
-        <v>1.042558980092461</v>
+        <v>1.047622097749728</v>
       </c>
       <c r="L9">
-        <v>1.045450541934604</v>
+        <v>1.022880020721677</v>
       </c>
       <c r="M9">
-        <v>1.053220022745829</v>
+        <v>1.024158482146908</v>
       </c>
       <c r="N9">
-        <v>1.041685697026677</v>
+        <v>1.023775661365874</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032888533276178</v>
+        <v>0.9887756486861877</v>
       </c>
       <c r="D10">
-        <v>1.038524940308827</v>
+        <v>1.030303579461839</v>
       </c>
       <c r="E10">
-        <v>1.040915657467852</v>
+        <v>1.003180786482707</v>
       </c>
       <c r="F10">
-        <v>1.04845768091539</v>
+        <v>1.003373925430379</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038918954890246</v>
+        <v>1.047897389041341</v>
       </c>
       <c r="J10">
-        <v>1.039241963007085</v>
+        <v>1.017441786428165</v>
       </c>
       <c r="K10">
-        <v>1.041961541759487</v>
+        <v>1.044146431940399</v>
       </c>
       <c r="L10">
-        <v>1.044343784427034</v>
+        <v>1.017492847358177</v>
       </c>
       <c r="M10">
-        <v>1.051859352266882</v>
+        <v>1.017682528650125</v>
       </c>
       <c r="N10">
-        <v>1.040717805797275</v>
+        <v>1.018886670467097</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032234639743699</v>
+        <v>0.9852619312599342</v>
       </c>
       <c r="D11">
-        <v>1.038142434594602</v>
+        <v>1.028180014648379</v>
       </c>
       <c r="E11">
-        <v>1.040313318529861</v>
+        <v>1.000172223044624</v>
       </c>
       <c r="F11">
-        <v>1.047746463921254</v>
+        <v>0.9998738257373282</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038764171849902</v>
+        <v>1.046754004133043</v>
       </c>
       <c r="J11">
-        <v>1.038822931959842</v>
+        <v>1.015260949340324</v>
       </c>
       <c r="K11">
-        <v>1.041701613917158</v>
+        <v>1.042589370196326</v>
       </c>
       <c r="L11">
-        <v>1.043864505204257</v>
+        <v>1.01509089222196</v>
       </c>
       <c r="M11">
-        <v>1.051270560723082</v>
+        <v>1.014798121912404</v>
       </c>
       <c r="N11">
-        <v>1.040298179677881</v>
+        <v>1.016702736340446</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031991785611178</v>
+        <v>0.983940377590945</v>
       </c>
       <c r="D12">
-        <v>1.038000302257964</v>
+        <v>1.027382104689215</v>
       </c>
       <c r="E12">
-        <v>1.040089693572564</v>
+        <v>0.9990421485067091</v>
       </c>
       <c r="F12">
-        <v>1.047482455011003</v>
+        <v>0.9985591227899931</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038706401400363</v>
+        <v>1.046322013527285</v>
       </c>
       <c r="J12">
-        <v>1.038667207281624</v>
+        <v>1.014440311320632</v>
       </c>
       <c r="K12">
-        <v>1.041604880945703</v>
+        <v>1.042002859670706</v>
       </c>
       <c r="L12">
-        <v>1.043686473251993</v>
+        <v>1.0141877224757</v>
       </c>
       <c r="M12">
-        <v>1.051051916169469</v>
+        <v>1.013713979894101</v>
       </c>
       <c r="N12">
-        <v>1.040142233852758</v>
+        <v>1.015880932920638</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032043877237026</v>
+        <v>0.9842246130925286</v>
       </c>
       <c r="D13">
-        <v>1.038030792485696</v>
+        <v>1.027553678474579</v>
       </c>
       <c r="E13">
-        <v>1.040137656870249</v>
+        <v>0.999285133208567</v>
       </c>
       <c r="F13">
-        <v>1.047539078172472</v>
+        <v>0.9988418060718753</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038718805889575</v>
+        <v>1.046415011387852</v>
       </c>
       <c r="J13">
-        <v>1.038700614269616</v>
+        <v>1.014616828600863</v>
       </c>
       <c r="K13">
-        <v>1.041625638814778</v>
+        <v>1.042129042373398</v>
       </c>
       <c r="L13">
-        <v>1.043724661986129</v>
+        <v>1.014381961770907</v>
       </c>
       <c r="M13">
-        <v>1.051098813496296</v>
+        <v>1.013947120318387</v>
       </c>
       <c r="N13">
-        <v>1.040175688282504</v>
+        <v>1.016057700875653</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032214564710214</v>
+        <v>0.9851530313820663</v>
       </c>
       <c r="D14">
-        <v>1.038130686957039</v>
+        <v>1.028114247619484</v>
       </c>
       <c r="E14">
-        <v>1.040294831361594</v>
+        <v>1.000079071075345</v>
       </c>
       <c r="F14">
-        <v>1.047724637416442</v>
+        <v>0.9997654550023697</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03875940217666</v>
+        <v>1.046718445973874</v>
       </c>
       <c r="J14">
-        <v>1.038810061295126</v>
+        <v>1.015193334144402</v>
       </c>
       <c r="K14">
-        <v>1.041693621691012</v>
+        <v>1.04254105723889</v>
       </c>
       <c r="L14">
-        <v>1.043849789152837</v>
+        <v>1.015016463289317</v>
       </c>
       <c r="M14">
-        <v>1.051252486292327</v>
+        <v>1.014708770524055</v>
       </c>
       <c r="N14">
-        <v>1.040285290735344</v>
+        <v>1.01663502512319</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032319735018899</v>
+        <v>0.985722858406009</v>
       </c>
       <c r="D15">
-        <v>1.038192228303286</v>
+        <v>1.028458411750343</v>
       </c>
       <c r="E15">
-        <v>1.04039168642439</v>
+        <v>1.00056655680955</v>
       </c>
       <c r="F15">
-        <v>1.047838988969859</v>
+        <v>1.000332583943511</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038784378183088</v>
+        <v>1.046904427859383</v>
       </c>
       <c r="J15">
-        <v>1.038877484914959</v>
+        <v>1.015547119995846</v>
       </c>
       <c r="K15">
-        <v>1.041735483808494</v>
+        <v>1.042793823342149</v>
       </c>
       <c r="L15">
-        <v>1.043926883311594</v>
+        <v>1.015405928368312</v>
       </c>
       <c r="M15">
-        <v>1.051347176988449</v>
+        <v>1.015176338201747</v>
       </c>
       <c r="N15">
-        <v>1.040352810104451</v>
+        <v>1.016989313391123</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032931934371084</v>
+        <v>0.9890065942371408</v>
       </c>
       <c r="D16">
-        <v>1.03855031847973</v>
+        <v>1.030443255962598</v>
       </c>
       <c r="E16">
-        <v>1.040955648179013</v>
+        <v>1.003378732114552</v>
       </c>
       <c r="F16">
-        <v>1.048504905676159</v>
+        <v>1.00360421324433</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038929188434432</v>
+        <v>1.047972265577611</v>
       </c>
       <c r="J16">
-        <v>1.039269761764635</v>
+        <v>1.017585068013934</v>
       </c>
       <c r="K16">
-        <v>1.041978766425075</v>
+        <v>1.044248644633364</v>
       </c>
       <c r="L16">
-        <v>1.044375591693477</v>
+        <v>1.01765075006642</v>
       </c>
       <c r="M16">
-        <v>1.051898436642035</v>
+        <v>1.017872208624612</v>
       </c>
       <c r="N16">
-        <v>1.040745644032249</v>
+        <v>1.019030155529152</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033316005807669</v>
+        <v>0.9910381740705501</v>
       </c>
       <c r="D17">
-        <v>1.038774843426238</v>
+        <v>1.031672464581672</v>
       </c>
       <c r="E17">
-        <v>1.04130960264434</v>
+        <v>1.005121102473217</v>
       </c>
       <c r="F17">
-        <v>1.04892291769189</v>
+        <v>1.005631289622691</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039019529589542</v>
+        <v>1.048629411937238</v>
       </c>
       <c r="J17">
-        <v>1.03951568727794</v>
+        <v>1.018845152228314</v>
       </c>
       <c r="K17">
-        <v>1.04213104179818</v>
+        <v>1.045147051383472</v>
       </c>
       <c r="L17">
-        <v>1.044657042729569</v>
+        <v>1.019039932092117</v>
       </c>
       <c r="M17">
-        <v>1.05224433148486</v>
+        <v>1.019541297148419</v>
       </c>
       <c r="N17">
-        <v>1.04099191878799</v>
+        <v>1.02029202920765</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033540047877939</v>
+        <v>0.9922132810654632</v>
       </c>
       <c r="D18">
-        <v>1.038905770087671</v>
+        <v>1.032383859167545</v>
       </c>
       <c r="E18">
-        <v>1.041516128738066</v>
+        <v>1.006129818096786</v>
       </c>
       <c r="F18">
-        <v>1.049166844970305</v>
+        <v>1.00680485399435</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039072045662248</v>
+        <v>1.049008232688792</v>
       </c>
       <c r="J18">
-        <v>1.03965908105846</v>
+        <v>1.019573723561279</v>
       </c>
       <c r="K18">
-        <v>1.042219742399668</v>
+        <v>1.045666075427673</v>
       </c>
       <c r="L18">
-        <v>1.044821203887161</v>
+        <v>1.019843575163509</v>
       </c>
       <c r="M18">
-        <v>1.052446123467778</v>
+        <v>1.020507151570501</v>
       </c>
       <c r="N18">
-        <v>1.041135516204126</v>
+        <v>1.021021635195477</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033616443765413</v>
+        <v>0.9926123132489604</v>
       </c>
       <c r="D19">
-        <v>1.038950406721499</v>
+        <v>1.032625490900352</v>
       </c>
       <c r="E19">
-        <v>1.041586560723577</v>
+        <v>1.006472498349683</v>
       </c>
       <c r="F19">
-        <v>1.049250036158944</v>
+        <v>1.007203541371275</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039089922009311</v>
+        <v>1.049136648713743</v>
       </c>
       <c r="J19">
-        <v>1.039707966064779</v>
+        <v>1.019821075040618</v>
       </c>
       <c r="K19">
-        <v>1.042249966787658</v>
+        <v>1.045842210374632</v>
       </c>
       <c r="L19">
-        <v>1.044877177823459</v>
+        <v>1.020116486468111</v>
       </c>
       <c r="M19">
-        <v>1.052514935640489</v>
+        <v>1.020835197445649</v>
       </c>
       <c r="N19">
-        <v>1.041184470632762</v>
+        <v>1.021269337942288</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033274796537264</v>
+        <v>0.9908212330384428</v>
       </c>
       <c r="D20">
-        <v>1.038750757627182</v>
+        <v>1.031541162227067</v>
       </c>
       <c r="E20">
-        <v>1.041271619388134</v>
+        <v>1.004934951381978</v>
       </c>
       <c r="F20">
-        <v>1.048878057789229</v>
+        <v>1.005414718978837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039009855286529</v>
+        <v>1.048559371845854</v>
       </c>
       <c r="J20">
-        <v>1.03948930700797</v>
+        <v>1.018710624308801</v>
       </c>
       <c r="K20">
-        <v>1.042114716397689</v>
+        <v>1.045051180435139</v>
       </c>
       <c r="L20">
-        <v>1.044626846155054</v>
+        <v>1.018891577135588</v>
       </c>
       <c r="M20">
-        <v>1.052207216371751</v>
+        <v>1.019363020634927</v>
       </c>
       <c r="N20">
-        <v>1.040965501055012</v>
+        <v>1.020157310243062</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032164300644106</v>
+        <v>0.9848800958479579</v>
       </c>
       <c r="D21">
-        <v>1.038101271966849</v>
+        <v>1.027949429085714</v>
       </c>
       <c r="E21">
-        <v>1.040248544333599</v>
+        <v>0.9998456286135402</v>
       </c>
       <c r="F21">
-        <v>1.047669990180872</v>
+        <v>0.9994938736466152</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038747455227606</v>
+        <v>1.046629295525414</v>
       </c>
       <c r="J21">
-        <v>1.038777834019754</v>
+        <v>1.015023864099467</v>
       </c>
       <c r="K21">
-        <v>1.04167360750464</v>
+        <v>1.042419956791939</v>
       </c>
       <c r="L21">
-        <v>1.043812942490379</v>
+        <v>1.014829926198654</v>
       </c>
       <c r="M21">
-        <v>1.05120723185506</v>
+        <v>1.014484841095464</v>
       </c>
       <c r="N21">
-        <v>1.040253017693545</v>
+        <v>1.016465314411353</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031466267554265</v>
+        <v>0.9810492601988156</v>
       </c>
       <c r="D22">
-        <v>1.037692610511862</v>
+        <v>1.025638166078356</v>
       </c>
       <c r="E22">
-        <v>1.039605936394714</v>
+        <v>0.9965727251724352</v>
       </c>
       <c r="F22">
-        <v>1.046911406754745</v>
+        <v>0.9956862201826245</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038580870755872</v>
+        <v>1.045373469731114</v>
       </c>
       <c r="J22">
-        <v>1.038330052337474</v>
+        <v>1.012644357939581</v>
       </c>
       <c r="K22">
-        <v>1.041395199647816</v>
+        <v>1.04071827949979</v>
       </c>
       <c r="L22">
-        <v>1.04330117274238</v>
+        <v>1.012212384171719</v>
       </c>
       <c r="M22">
-        <v>1.050578842630781</v>
+        <v>1.011343621018438</v>
       </c>
       <c r="N22">
-        <v>1.039804600109915</v>
+        <v>1.014082429079786</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031836290952745</v>
+        <v>0.9830894271803037</v>
       </c>
       <c r="D23">
-        <v>1.037909277981706</v>
+        <v>1.02686857081624</v>
       </c>
       <c r="E23">
-        <v>1.039946534102663</v>
+        <v>0.9983149181095647</v>
       </c>
       <c r="F23">
-        <v>1.047313453405729</v>
+        <v>0.9977130761016192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038669332101279</v>
+        <v>1.046043315301311</v>
       </c>
       <c r="J23">
-        <v>1.038567472387298</v>
+        <v>1.013911795920677</v>
       </c>
       <c r="K23">
-        <v>1.041542889534685</v>
+        <v>1.041624971044225</v>
       </c>
       <c r="L23">
-        <v>1.04357247480431</v>
+        <v>1.013606243470391</v>
       </c>
       <c r="M23">
-        <v>1.050911931154876</v>
+        <v>1.013016108487109</v>
       </c>
       <c r="N23">
-        <v>1.040042357323442</v>
+        <v>1.015351666968193</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033293417171787</v>
+        <v>0.9909192898150386</v>
       </c>
       <c r="D24">
-        <v>1.038761641071144</v>
+        <v>1.031600509331328</v>
       </c>
       <c r="E24">
-        <v>1.041288782169006</v>
+        <v>1.005019088420659</v>
       </c>
       <c r="F24">
-        <v>1.048898327714723</v>
+        <v>1.005512605049669</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039014227238878</v>
+        <v>1.048591033777495</v>
       </c>
       <c r="J24">
-        <v>1.039501227272198</v>
+        <v>1.018771431468766</v>
       </c>
       <c r="K24">
-        <v>1.042122093511386</v>
+        <v>1.045094515822251</v>
       </c>
       <c r="L24">
-        <v>1.044640490701089</v>
+        <v>1.01895863284283</v>
       </c>
       <c r="M24">
-        <v>1.052223986978269</v>
+        <v>1.019443599852636</v>
       </c>
       <c r="N24">
-        <v>1.040977438247382</v>
+        <v>1.020218203756168</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034985102527509</v>
+        <v>0.9996205695702409</v>
       </c>
       <c r="D25">
-        <v>1.039749384584105</v>
+        <v>1.036873853810865</v>
       </c>
       <c r="E25">
-        <v>1.042849146784635</v>
+        <v>1.012503597199133</v>
       </c>
       <c r="F25">
-        <v>1.050741718210312</v>
+        <v>1.014220951760584</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039407458620556</v>
+        <v>1.051372536376837</v>
       </c>
       <c r="J25">
-        <v>1.040582818282619</v>
+        <v>1.024160709813432</v>
       </c>
       <c r="K25">
-        <v>1.042789553583367</v>
+        <v>1.048925500800064</v>
       </c>
       <c r="L25">
-        <v>1.045879686156338</v>
+        <v>1.024910862925445</v>
       </c>
       <c r="M25">
-        <v>1.053748018617454</v>
+        <v>1.026602445175154</v>
       </c>
       <c r="N25">
-        <v>1.042060565241098</v>
+        <v>1.025615135494242</v>
       </c>
     </row>
   </sheetData>
